--- a/ТЕСТЫ.xlsx
+++ b/ТЕСТЫ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KEY Project\Diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\KEY Project\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96582EFB-4C8B-482B-BC2E-4B2579231DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4943CEAA-8998-4B12-A8D6-CAADB4FACFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{942AD537-60D1-4BCF-AF79-777CDBBBE7DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{942AD537-60D1-4BCF-AF79-777CDBBBE7DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -3531,9 +3531,6 @@
     <t>['v', 'd', 'c', 'x', 'b']</t>
   </si>
   <si>
-    <t>TOP1: 0.973, TOP2: 0.984, TOP3: 0.995,  TOP4: 1.000, TOP5:1.000</t>
-  </si>
-  <si>
     <t>Истинное</t>
   </si>
   <si>
@@ -3541,6 +3538,9 @@
   </si>
   <si>
     <t>ТОП 1-5</t>
+  </si>
+  <si>
+    <t>TOP1: 0.971, TOP2: 0.984, TOP3: 0.995,  TOP4: 1.000, TOP5:1.000</t>
   </si>
 </sst>
 </file>
@@ -3927,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C365FEB-02AB-496D-99AD-DA421A26974B}">
   <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="F377" sqref="F377"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>596</v>
@@ -3996,12 +3996,12 @@
         <v>976</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>15</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B33" s="1">
         <v>9</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>28</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>4</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>29</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>31</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>33</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>34</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>36</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>37</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
@@ -5059,7 +5059,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>38</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B51" s="1">
         <v>8</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>39</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>2</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>40</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>41</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>42</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>43</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>44</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>15</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>45</v>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B63" s="5">
         <v>8</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>46</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>47</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>48</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>49</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>50</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>51</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>52</v>
@@ -5565,7 +5565,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>53</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>54</v>
@@ -5634,7 +5634,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>43</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>55</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>56</v>
@@ -5726,7 +5726,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>2</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>57</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B81" s="1">
         <v>8</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>58</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>32</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>59</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>60</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>27</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>61</v>
@@ -5956,7 +5956,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>62</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>63</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>9</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>64</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>11</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>65</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>66</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>67</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>68</v>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>69</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>70</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>71</v>
@@ -6232,7 +6232,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>72</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>73</v>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>47</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>74</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>21</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>75</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>76</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>2</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>77</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B111" s="1">
         <v>5</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>78</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>66</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>79</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>21</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>80</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>32</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>81</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>11</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>82</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>52</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>83</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>11</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>84</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>30</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>85</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>36</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>86</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>4</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>87</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B131" s="1">
         <v>8</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>88</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>62</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>89</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B135" s="1">
         <v>8</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>90</v>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>15</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>91</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>92</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>93</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>94</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>95</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>11</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>96</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B145" s="1">
         <v>1</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>97</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>9</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>98</v>
@@ -7336,7 +7336,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>17</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>99</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B151" s="1">
         <v>9</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>100</v>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B153" s="1">
         <v>8</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>101</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>52</v>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>102</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>52</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>103</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>72</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>104</v>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B161" s="1">
         <v>3</v>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>105</v>
@@ -7658,7 +7658,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>50</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>106</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>107</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>108</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>32</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>109</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>4</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>110</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>72</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>111</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>36</v>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>112</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>113</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>34</v>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>114</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B179" s="1">
         <v>7</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>115</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>50</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>116</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>107</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>117</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B185" s="1">
         <v>5</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>118</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B187" s="1">
         <v>5</v>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>119</v>
@@ -8256,7 +8256,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>36</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>120</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>121</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>17</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>122</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>25</v>
@@ -8417,7 +8417,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>123</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>34</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>124</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>72</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>125</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>126</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>127</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>72</v>
@@ -8601,7 +8601,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>128</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B205" s="1">
         <v>8</v>
@@ -8647,7 +8647,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>129</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>34</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>130</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>36</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>131</v>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>34</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>132</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>126</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>133</v>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>36</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>134</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>126</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>135</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B219" s="5">
         <v>0</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>136</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>137</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>138</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>72</v>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>139</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>7</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>140</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>141</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>142</v>
@@ -9176,7 +9176,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>4</v>
@@ -9199,7 +9199,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>143</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -9245,7 +9245,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>144</v>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>27</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>145</v>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>43</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>146</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>94</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>147</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B239" s="1">
         <v>9</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>148</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B241" s="1">
         <v>0</v>
@@ -9475,7 +9475,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>149</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>107</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>150</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>137</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>151</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>52</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>152</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>17</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>153</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>17</v>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>154</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B253" s="1">
         <v>2</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>155</v>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>7</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>156</v>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>9</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>157</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B259" s="1">
         <v>4</v>
@@ -9889,7 +9889,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>158</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>92</v>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>159</v>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>34</v>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>160</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>126</v>
@@ -10027,7 +10027,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>161</v>
@@ -10050,7 +10050,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>7</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>162</v>
@@ -10096,7 +10096,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>50</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>163</v>
@@ -10142,7 +10142,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>34</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>164</v>
@@ -10188,7 +10188,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>70</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>165</v>
@@ -10234,7 +10234,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>137</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>166</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>7</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>167</v>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>66</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>168</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>50</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>169</v>
@@ -10418,7 +10418,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>94</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>170</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>32</v>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>171</v>
@@ -10510,7 +10510,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>126</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>172</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>7</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>173</v>
@@ -10602,7 +10602,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B291" s="1">
         <v>3</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>174</v>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B293" s="1">
         <v>7</v>
@@ -10671,7 +10671,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>175</v>
@@ -10694,7 +10694,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B295" s="1">
         <v>6</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>176</v>
@@ -10740,7 +10740,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>137</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>177</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B299" s="1">
         <v>3</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>178</v>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>2</v>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>179</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>34</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>180</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>70</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>181</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>25</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>182</v>
@@ -11016,7 +11016,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B309" s="1">
         <v>7</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>183</v>
@@ -11062,7 +11062,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>126</v>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>184</v>
@@ -11108,7 +11108,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>126</v>
@@ -11131,7 +11131,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>185</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>30</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>186</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>68</v>
@@ -11223,7 +11223,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>187</v>
@@ -11246,7 +11246,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>27</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>188</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>30</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>189</v>
@@ -11338,7 +11338,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>15</v>
@@ -11361,7 +11361,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>190</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>25</v>
@@ -11407,7 +11407,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>191</v>
@@ -11430,7 +11430,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>70</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>192</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>52</v>
@@ -11499,7 +11499,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>193</v>
@@ -11522,7 +11522,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>47</v>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>194</v>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>66</v>
@@ -11591,7 +11591,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>195</v>
@@ -11614,7 +11614,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>62</v>
@@ -11637,7 +11637,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>196</v>
@@ -11660,7 +11660,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>94</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>197</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>27</v>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>198</v>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>36</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>199</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>34</v>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>200</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>11</v>
@@ -11867,7 +11867,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>201</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>34</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>202</v>
@@ -11936,7 +11936,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>4</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>203</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>36</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>204</v>
@@ -12028,7 +12028,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>32</v>
@@ -12051,7 +12051,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>205</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>21</v>
@@ -12097,7 +12097,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>206</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>4</v>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>207</v>
@@ -12166,7 +12166,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>43</v>
@@ -12189,7 +12189,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>208</v>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>36</v>
@@ -12235,7 +12235,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>209</v>
@@ -12258,7 +12258,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>17</v>
@@ -12281,7 +12281,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>210</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>52</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>211</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>137</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>212</v>
@@ -12396,7 +12396,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B369" s="1">
         <v>5</v>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>213</v>
@@ -12442,7 +12442,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>15</v>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>214</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>141</v>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>215</v>
@@ -12534,7 +12534,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>2</v>
@@ -12557,7 +12557,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>216</v>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>68</v>
@@ -12603,7 +12603,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>217</v>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>66</v>
